--- a/biology/Médecine/Foramen_grand_rond/Foramen_grand_rond.xlsx
+++ b/biology/Médecine/Foramen_grand_rond/Foramen_grand_rond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le foramen grand rond est une cavité qui fait communiquer l'endocrâne et l'exocrâne au niveau respectivement de l'étage moyen et de la base du crâne.
 Il se situe sur l'os sphénoïde et est antérieur au foramen ovale . C'est par cette cavité que passent : 
